--- a/Feedback links-Digital CRM SFDC Internship Batch II 09th January 2020 at Pune Hinjewadi-2E.xlsx
+++ b/Feedback links-Digital CRM SFDC Internship Batch II 09th January 2020 at Pune Hinjewadi-2E.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kashende\Desktop\Batch wise details-\9th Jan 2019 Feedback\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ndafile\Lab 2E\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Sr. No</t>
   </si>
@@ -50,9 +50,6 @@
     <t xml:space="preserve">Soft Skills Part 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">Soft Skills Part 4 &amp; 5 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Soft Skills Part 6 </t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Ram Kumar</t>
   </si>
   <si>
-    <t>Raj Kattimani</t>
-  </si>
-  <si>
     <t>Neelima</t>
   </si>
   <si>
@@ -159,6 +153,51 @@
   </si>
   <si>
     <t>https://forms.office.com/Pages/ResponsePage.aspx?id=Wq6idgCfa0-V7V0z13xNYYVaVqgUfCFAnPc8GWhRIVVUOTg5U1NHUkZPMlVPV1Y3WVJBSlgwVVZQVi4u</t>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=Wq6idgCfa0-V7V0z13xNYYVaVqgUfCFAnPc8GWhRIVVUMUhOUk5RSUNBTE5TRTdPVzRYVzE5UVM1Ni4u</t>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=Wq6idgCfa0-V7V0z13xNYYVaVqgUfCFAnPc8GWhRIVVUNEtKWVZJUFUzRjBLQzEwNlgwSk1HS0IzQy4u</t>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=Wq6idgCfa0-V7V0z13xNYYVaVqgUfCFAnPc8GWhRIVVUN1pXQzdIUDZNT1VIRDQ2WjVEWjJBVjRMNi4u</t>
+  </si>
+  <si>
+    <t>Soft Skills Part 4 and 5</t>
+  </si>
+  <si>
+    <t>Aabha Gupta</t>
+  </si>
+  <si>
+    <t>Krishna Teja</t>
+  </si>
+  <si>
+    <t>200122226CHCH</t>
+  </si>
+  <si>
+    <t>200128254CHCH</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>20020311CHCH</t>
+  </si>
+  <si>
+    <t>SAYEMA</t>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=Wq6idgCfa0-V7V0z13xNYYVaVqgUfCFAnPc8GWhRIVVUMVRBREZSRjNMSUtNU1BaUkEzNlBPMFlKSC4u</t>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=Wq6idgCfa0-V7V0z13xNYYVaVqgUfCFAnPc8GWhRIVVURjEyTkFCR1c4SVBRTzRKR0FITjBCQ09QMy4u</t>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=Wq6idgCfa0-V7V0z13xNYYVaVqgUfCFAnPc8GWhRIVVUQVJJNks3RVlOMzhWSlg5VUdSSldHSVlHVS4u</t>
+  </si>
+  <si>
+    <t>https://forms.office.com/Pages/ResponsePage.aspx?id=Wq6idgCfa0-V7V0z13xNYYVaVqgUfCFAnPc8GWhRIVVUMzlLSVVDVUtIT0w0WVhaR0I1Nk5QQzVPSC4u</t>
   </si>
 </sst>
 </file>
@@ -169,7 +208,7 @@
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,13 +242,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -265,6 +297,19 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -293,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -316,12 +361,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,55 +427,90 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -672,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,385 +832,416 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20">
+    <row r="2" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="27">
+        <v>43839</v>
+      </c>
+      <c r="E2" s="27">
+        <v>43839</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="13">
+        <v>43840</v>
+      </c>
+      <c r="E3" s="13">
+        <v>43840</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="14">
-        <v>43839</v>
-      </c>
-      <c r="E2" s="14">
-        <v>43839</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="C4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="27">
+        <v>43843</v>
+      </c>
+      <c r="E4" s="27">
+        <v>43844</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G4" s="31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
+    <row r="5" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="27">
+        <v>43845</v>
+      </c>
+      <c r="E5" s="27">
+        <v>43851</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="27">
+        <v>43852</v>
+      </c>
+      <c r="E6" s="27">
+        <v>43858</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="21">
+        <v>43859</v>
+      </c>
+      <c r="E7" s="21">
+        <v>43859</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="B8" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="42">
+        <v>43869</v>
+      </c>
+      <c r="E8" s="42">
+        <v>43876</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="15">
-        <v>43840</v>
-      </c>
-      <c r="E3" s="15">
-        <v>43840</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="D9" s="12">
+        <v>43861</v>
+      </c>
+      <c r="E9" s="12">
+        <v>43868</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="34">
+        <v>43871</v>
+      </c>
+      <c r="E10" s="34">
+        <v>43871</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="37">
+        <v>43871</v>
+      </c>
+      <c r="E11" s="37">
+        <v>43872</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="14">
-        <v>43843</v>
-      </c>
-      <c r="E4" s="14">
-        <v>43844</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="37">
+        <v>43873</v>
+      </c>
+      <c r="E12" s="37">
+        <v>43875</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="14">
-        <v>43845</v>
-      </c>
-      <c r="E5" s="14">
-        <v>43851</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12">
+        <v>43878</v>
+      </c>
+      <c r="E13" s="12">
+        <v>43886</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="14">
-        <v>43852</v>
-      </c>
-      <c r="E6" s="14">
-        <v>43858</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="12">
+        <v>43886</v>
+      </c>
+      <c r="E14" s="12">
+        <v>43886</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="23">
-        <v>43859</v>
-      </c>
-      <c r="E7" s="23">
-        <v>43859</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="12">
+        <v>43887</v>
+      </c>
+      <c r="E15" s="12">
+        <v>43893</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="15">
-        <v>43859</v>
-      </c>
-      <c r="E8" s="15">
-        <v>43860</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="14">
-        <v>43861</v>
-      </c>
-      <c r="E9" s="14">
-        <v>43868</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="23">
-        <v>43871</v>
-      </c>
-      <c r="E10" s="23">
-        <v>43871</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="15">
-        <v>43871</v>
-      </c>
-      <c r="E11" s="15">
-        <v>43873</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="14">
-        <v>43873</v>
-      </c>
-      <c r="E12" s="14">
-        <v>43878</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="14">
-        <v>43878</v>
-      </c>
-      <c r="E13" s="14">
-        <v>43886</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="26">
-        <v>43886</v>
-      </c>
-      <c r="E14" s="26">
-        <v>43886</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="14">
-        <v>43887</v>
-      </c>
-      <c r="E15" s="14">
-        <v>43893</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="20">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>43894</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>43902</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20">
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>23</v>
+      <c r="B17" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>43903</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>43907</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="20">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>24</v>
+      <c r="B18" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="23">
+      <c r="D18" s="34">
         <v>43908</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="34">
         <v>43908</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="20">
+      <c r="H18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="15">
+      <c r="B19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="27">
         <v>43908</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="27">
         <v>43909</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="20">
+      <c r="F19" s="24"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="12">
+        <v>43910</v>
+      </c>
+      <c r="E20" s="12">
+        <v>43910</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="14">
-        <v>43910</v>
-      </c>
-      <c r="E20" s="14">
-        <v>43910</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="20">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="14">
+      <c r="C21" s="23"/>
+      <c r="D21" s="12">
         <v>43913</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>43922</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="27"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A1:T10">
